--- a/translation.xlsx
+++ b/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920CF0F-F739-44CB-B600-47B6A9498F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E876611-88FA-44F1-973D-FB50724D15FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>block</t>
   </si>
@@ -49,6 +49,153 @@
   </si>
   <si>
     <t>curretnt_language</t>
+  </si>
+  <si>
+    <t>page1</t>
+  </si>
+  <si>
+    <t>Страница 1</t>
+  </si>
+  <si>
+    <t>Page one</t>
+  </si>
+  <si>
+    <t>Page two</t>
+  </si>
+  <si>
+    <t>Страница 2</t>
+  </si>
+  <si>
+    <t>page2</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Главная</t>
+  </si>
+  <si>
+    <t>Start page</t>
+  </si>
+  <si>
+    <t>Статистика</t>
+  </si>
+  <si>
+    <t>Участвовать!</t>
+  </si>
+  <si>
+    <t>Participate!</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>О проекте</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Для волонтеров</t>
+  </si>
+  <si>
+    <t>Польза для науки</t>
+  </si>
+  <si>
+    <t>Польза для вас</t>
+  </si>
+  <si>
+    <t>Как нам помочь</t>
+  </si>
+  <si>
+    <t>Наш волонтерский проект</t>
+  </si>
+  <si>
+    <t>Для специалистов</t>
+  </si>
+  <si>
+    <t>Сотрудничество</t>
+  </si>
+  <si>
+    <t>Наше веб-приложение</t>
+  </si>
+  <si>
+    <t>Наш научный проект</t>
+  </si>
+  <si>
+    <t>Наша команда</t>
+  </si>
+  <si>
+    <t>Our team</t>
+  </si>
+  <si>
+    <t>Profit for science</t>
+  </si>
+  <si>
+    <t>Profit for you</t>
+  </si>
+  <si>
+    <t>How to help</t>
+  </si>
+  <si>
+    <t>For volunteers</t>
+  </si>
+  <si>
+    <t>Our voluntary project</t>
+  </si>
+  <si>
+    <t>For scientists</t>
+  </si>
+  <si>
+    <t>Cooperation</t>
+  </si>
+  <si>
+    <t>Our scientific project</t>
+  </si>
+  <si>
+    <t>participate</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>for_volunteers</t>
+  </si>
+  <si>
+    <t>profit_science</t>
+  </si>
+  <si>
+    <t>profit_personal</t>
+  </si>
+  <si>
+    <t>howtohelp</t>
+  </si>
+  <si>
+    <t>voluntary_project</t>
+  </si>
+  <si>
+    <t>for_scientists</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>web_app</t>
+  </si>
+  <si>
+    <t>Our web-application</t>
+  </si>
+  <si>
+    <t>scientific_project</t>
   </si>
 </sst>
 </file>
@@ -401,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DD755-9DD9-4377-9219-883035337107}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,6 +588,230 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E876611-88FA-44F1-973D-FB50724D15FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA53C3-90DE-4B5A-A958-1EFF06C8315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="29400" yWindow="1410" windowWidth="19410" windowHeight="11295" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t>block</t>
   </si>
@@ -51,24 +51,6 @@
     <t>curretnt_language</t>
   </si>
   <si>
-    <t>page1</t>
-  </si>
-  <si>
-    <t>Страница 1</t>
-  </si>
-  <si>
-    <t>Page one</t>
-  </si>
-  <si>
-    <t>Page two</t>
-  </si>
-  <si>
-    <t>Страница 2</t>
-  </si>
-  <si>
-    <t>page2</t>
-  </si>
-  <si>
     <t>nv</t>
   </si>
   <si>
@@ -196,13 +178,241 @@
   </si>
   <si>
     <t>scientific_project</t>
+  </si>
+  <si>
+    <t>sci.prft</t>
+  </si>
+  <si>
+    <t>you.prft</t>
+  </si>
+  <si>
+    <t>vol.proj</t>
+  </si>
+  <si>
+    <t>coop</t>
+  </si>
+  <si>
+    <t>webapp</t>
+  </si>
+  <si>
+    <t>sci.proj</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>О проекте в пяти предложениях:</t>
+  </si>
+  <si>
+    <t>About the poject in brief:</t>
+  </si>
+  <si>
+    <t>А теперь подробности</t>
+  </si>
+  <si>
+    <t>Цель научного исследования</t>
+  </si>
+  <si>
+    <t>Now details:</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>ulli_Научных публикаций тысячи и это число прирастает лавинообразно.; Поиск первичной информации в ручном режиме стал тормозить ученых(((; Результаты проекта повысят скорость и эффективность исследований окружающей среды.; Волонтеры будут оцифровывать научные статьи и структурировать информацию из них на онлайн-платформе.; Волонтеры смогут внести свой вклад в научный прогресс, получить доступ к эксклюзивным материалам и мероприятиям, а также (возможно) побороть свою арахнофобию.</t>
+  </si>
+  <si>
+    <t>Scientific aim</t>
+  </si>
+  <si>
+    <t>sozontov1</t>
+  </si>
+  <si>
+    <t>Созонтов Артём</t>
+  </si>
+  <si>
+    <t>Sozontov Artëm</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Описание роли описание роли описание роли описание роли описание роли описание роли</t>
+  </si>
+  <si>
+    <t>Project leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role description role description role description role description role description role description role description </t>
+  </si>
+  <si>
+    <t>sozontov2</t>
+  </si>
+  <si>
+    <t>sozontov3</t>
+  </si>
+  <si>
+    <t>sozontov4</t>
+  </si>
+  <si>
+    <t>34 года, к.б.н.,&lt;br&gt;Институт экологии растений и животных УрО РАН &lt;br&gt;Уральский федеральный университет</t>
+  </si>
+  <si>
+    <t>34 y.o., PhD in ecology &amp; zoology&lt;br/&gt;Institute of Plant and Animal Ecology &lt;br/&gt;Ural Federal University</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>adm0</t>
+  </si>
+  <si>
+    <t>adm1</t>
+  </si>
+  <si>
+    <t>adm2</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>adm.title</t>
+  </si>
+  <si>
+    <t>Административное расположение</t>
+  </si>
+  <si>
+    <t>srv</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>unhold</t>
+  </si>
+  <si>
+    <t>Зафиксировать</t>
+  </si>
+  <si>
+    <t>Расфиксировать</t>
+  </si>
+  <si>
+    <t>Hold the block</t>
+  </si>
+  <si>
+    <t>Unhold the block</t>
+  </si>
+  <si>
+    <t>loc.fill</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Ближайший локалитет</t>
+  </si>
+  <si>
+    <t>Населенный пункт</t>
+  </si>
+  <si>
+    <t>Nearest locality</t>
+  </si>
+  <si>
+    <t>Inhabited locality</t>
+  </si>
+  <si>
+    <t>Administrative geography</t>
+  </si>
+  <si>
+    <t>link.text</t>
+  </si>
+  <si>
+    <t>auth.text</t>
+  </si>
+  <si>
+    <t>passwd.fill</t>
+  </si>
+  <si>
+    <t>auth.in</t>
+  </si>
+  <si>
+    <t>auth.out</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">телеграм-бота </t>
+  </si>
+  <si>
+    <t>Введите пароль</t>
+  </si>
+  <si>
+    <t>Type your password</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Authorization </t>
+  </si>
+  <si>
+    <t>telegram bot</t>
+  </si>
+  <si>
+    <t>auth.title</t>
+  </si>
+  <si>
+    <t>Перед вводом данных необходимо авторизоваться. Зарегистрироваться и получить пароль можно у</t>
+  </si>
+  <si>
+    <t>Перед вводом данных необходимо авторизоваться. &lt;br/&gt;Зарегистрироваться и получить пароль можно у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in </t>
+  </si>
+  <si>
+    <t>Вход</t>
+  </si>
+  <si>
+    <t>Уйти</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +421,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,8 +455,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,19 +772,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DD755-9DD9-4377-9219-883035337107}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,231 +813,566 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/translation.xlsx
+++ b/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA53C3-90DE-4B5A-A958-1EFF06C8315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4C063-D81D-4175-AF0F-F4ACC4573D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1410" windowWidth="19410" windowHeight="11295" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t>block</t>
   </si>
@@ -315,9 +315,6 @@
     <t>unhold</t>
   </si>
   <si>
-    <t>Зафиксировать</t>
-  </si>
-  <si>
     <t>Расфиксировать</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>Перед вводом данных необходимо авторизоваться. Зарегистрироваться и получить пароль можно у</t>
   </si>
   <si>
-    <t>Перед вводом данных необходимо авторизоваться. &lt;br/&gt;Зарегистрироваться и получить пароль можно у</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sign in </t>
   </si>
   <si>
@@ -406,6 +400,54 @@
   </si>
   <si>
     <t>Уйти</t>
+  </si>
+  <si>
+    <t>geo.title</t>
+  </si>
+  <si>
+    <t>geo1</t>
+  </si>
+  <si>
+    <t>geo2</t>
+  </si>
+  <si>
+    <t>geo.fill</t>
+  </si>
+  <si>
+    <t>Географическое расположение</t>
+  </si>
+  <si>
+    <t>Locality &amp; coordinates</t>
+  </si>
+  <si>
+    <t>Точное расположение</t>
+  </si>
+  <si>
+    <t>Прочие примечания</t>
+  </si>
+  <si>
+    <t>Georeference remarks</t>
+  </si>
+  <si>
+    <t>locality (in details)</t>
+  </si>
+  <si>
+    <t>WGS'84 формат</t>
+  </si>
+  <si>
+    <t>WGS'84 only</t>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>Координаты:</t>
+  </si>
+  <si>
+    <t>Coordinates:</t>
+  </si>
+  <si>
+    <t>Зафиксировать информацию в этом блоке</t>
   </si>
 </sst>
 </file>
@@ -772,20 +814,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DD755-9DD9-4377-9219-883035337107}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -813,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -821,13 +863,13 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -835,13 +877,13 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -855,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -869,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -883,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -897,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -911,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -925,7 +967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -939,7 +981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -953,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -967,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1107,7 +1149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1121,7 +1163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1135,7 +1177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1149,7 +1191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1163,47 +1205,47 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1214,10 +1256,10 @@
         <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1228,10 +1270,10 @@
         <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1242,10 +1284,10 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1256,10 +1298,10 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1267,108 +1309,203 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
         <v>125</v>
       </c>
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
         <v>126</v>
       </c>
-      <c r="D47" t="s">
-        <v>118</v>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4C063-D81D-4175-AF0F-F4ACC4573D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C8119-5268-4399-AAF0-1E93CCDDA8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="5880" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
   <si>
     <t>block</t>
   </si>
@@ -448,6 +448,132 @@
   </si>
   <si>
     <t>Зафиксировать информацию в этом блоке</t>
+  </si>
+  <si>
+    <t>Данные пробы</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Биотоп</t>
+  </si>
+  <si>
+    <t>Выборочное усилие</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Sampling event</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Habitats</t>
+  </si>
+  <si>
+    <t>Sampling effort</t>
+  </si>
+  <si>
+    <t>e.g. 20 pitfal-traps*days, 50 net sweps</t>
+  </si>
+  <si>
+    <t>Event remarks</t>
+  </si>
+  <si>
+    <t>например, 20 лов-сут или 50 взмахов сачком</t>
+  </si>
+  <si>
+    <t>ev.title</t>
+  </si>
+  <si>
+    <t>ev.hab</t>
+  </si>
+  <si>
+    <t>ev.date</t>
+  </si>
+  <si>
+    <t>ev.effort</t>
+  </si>
+  <si>
+    <t>ev.effort_fill</t>
+  </si>
+  <si>
+    <t>ev.rem</t>
+  </si>
+  <si>
+    <t>Taxonomy</t>
+  </si>
+  <si>
+    <t>Таксономия</t>
+  </si>
+  <si>
+    <t>Family (optional)</t>
+  </si>
+  <si>
+    <t>Семейство (не обязательно)</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Род</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Вид</t>
+  </si>
+  <si>
+    <t>not defined</t>
+  </si>
+  <si>
+    <t>не определено</t>
+  </si>
+  <si>
+    <t>Individual remarks</t>
+  </si>
+  <si>
+    <t>Комментарии о экземпляре</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Самцов</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Самок</t>
+  </si>
+  <si>
+    <t>Juveniles</t>
+  </si>
+  <si>
+    <t>Неполовозрелых</t>
+  </si>
+  <si>
+    <t>taxa.title</t>
+  </si>
+  <si>
+    <t>taxa.fam</t>
+  </si>
+  <si>
+    <t>taxa.gen</t>
+  </si>
+  <si>
+    <t>taxa.sp</t>
   </si>
 </sst>
 </file>
@@ -814,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DD755-9DD9-4377-9219-883035337107}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,25 +1613,206 @@
       <c r="A53" t="s">
         <v>83</v>
       </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>83</v>
       </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C8119-5268-4399-AAF0-1E93CCDDA8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E394F-83D6-42C3-9913-5816116D397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="214">
   <si>
     <t>block</t>
   </si>
@@ -372,12 +372,6 @@
     <t xml:space="preserve">телеграм-бота </t>
   </si>
   <si>
-    <t>Введите пароль</t>
-  </si>
-  <si>
-    <t>Type your password</t>
-  </si>
-  <si>
     <t>Log out</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>auth.title</t>
   </si>
   <si>
-    <t>Перед вводом данных необходимо авторизоваться. Зарегистрироваться и получить пароль можно у</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sign in </t>
   </si>
   <si>
@@ -510,30 +501,12 @@
     <t>Таксономия</t>
   </si>
   <si>
-    <t>Family (optional)</t>
-  </si>
-  <si>
-    <t>Семейство (не обязательно)</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
     <t>Род</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Вид</t>
-  </si>
-  <si>
-    <t>not defined</t>
-  </si>
-  <si>
-    <t>не определено</t>
-  </si>
-  <si>
     <t>Individual remarks</t>
   </si>
   <si>
@@ -574,6 +547,126 @@
   </si>
   <si>
     <t>taxa.sp</t>
+  </si>
+  <si>
+    <t>taxa.fam_fill</t>
+  </si>
+  <si>
+    <t>опционально</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Семейство</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ваш пароль</t>
+  </si>
+  <si>
+    <t>Your password</t>
+  </si>
+  <si>
+    <t>sp.n. (описан как новый вид)</t>
+  </si>
+  <si>
+    <t>sp.n. (described as new species)</t>
+  </si>
+  <si>
+    <t>taxa.nsp</t>
+  </si>
+  <si>
+    <t>Видовое название</t>
+  </si>
+  <si>
+    <t>Specific epithet</t>
+  </si>
+  <si>
+    <t>Вид определен</t>
+  </si>
+  <si>
+    <t>Species defined</t>
+  </si>
+  <si>
+    <t>taxa.sp.def</t>
+  </si>
+  <si>
+    <t>abu.title</t>
+  </si>
+  <si>
+    <t>abu.mmm</t>
+  </si>
+  <si>
+    <t>abu.fff</t>
+  </si>
+  <si>
+    <t>abu.jjj</t>
+  </si>
+  <si>
+    <t>abu.rem</t>
+  </si>
+  <si>
+    <t>Проверить</t>
+  </si>
+  <si>
+    <t>Записать</t>
+  </si>
+  <si>
+    <t>Сбросить всё</t>
+  </si>
+  <si>
+    <t>Drop all</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>auth.no</t>
+  </si>
+  <si>
+    <t>auth.yes</t>
+  </si>
+  <si>
+    <t>&lt;tt&gt;Вход выполнен: &lt;span style="color: white; background-color: tomato;"&gt; НЕТ ✘&lt;/span&gt;&lt;br&gt;Возможность записи: &lt;span style="color: white; background-color: tomato;"&gt; НЕТ ✘ &lt;/span&gt;&lt;/tt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tt&gt;Вход выполнен: &lt;span style="color: blacl; background-color: lime;"&gt; ДА ✔ &lt;/span&gt;&lt;br&gt;Возможность записи: &lt;span style="color: black; background-color: lime;"&gt; ДА ✔ &lt;/span&gt;&lt;/tt&gt;</t>
+  </si>
+  <si>
+    <t>Перед вводом данных необходимо авторизоваться. &lt;br&gt;Получить пароль можно у</t>
   </si>
 </sst>
 </file>
@@ -940,15 +1033,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DD755-9DD9-4377-9219-883035337107}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
   </cols>
@@ -989,7 +1083,7 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
@@ -1011,30 +1105,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,13 +1136,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,13 +1192,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,13 +1206,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1154,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1196,41 +1290,41 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,13 +1332,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,41 +1346,41 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1294,13 +1388,13 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1308,13 +1402,13 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,53 +1416,125 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,13 +1542,13 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,13 +1556,13 @@
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1570,13 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1584,13 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,13 +1598,13 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1612,13 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1626,13 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,13 +1640,13 @@
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,13 +1654,13 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,13 +1668,13 @@
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,13 +1682,13 @@
         <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,13 +1696,13 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1710,13 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,13 +1724,13 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1572,13 +1738,13 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,13 +1752,13 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,13 +1766,13 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,13 +1780,13 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1628,10 +1794,10 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -1642,13 +1808,13 @@
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,13 +1822,13 @@
         <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,13 +1836,13 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,13 +1850,13 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
         <v>158</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,13 +1864,13 @@
         <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,13 +1878,13 @@
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,13 +1892,13 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1740,79 +1906,151 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>83</v>
       </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>83</v>
       </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Faunistica\fau_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E394F-83D6-42C3-9913-5816116D397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A9F075-E521-4B02-8701-06B4D70D58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{02C04964-5ED9-4063-A933-2BC0206A63F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>Точное расположение</t>
   </si>
   <si>
-    <t>Прочие примечания</t>
-  </si>
-  <si>
     <t>Georeference remarks</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>Зафиксировать информацию в этом блоке</t>
   </si>
   <si>
-    <t>Данные пробы</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
     <t>Выборочное усилие</t>
   </si>
   <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
     <t>Sampling event</t>
   </si>
   <si>
@@ -666,7 +657,16 @@
     <t>&lt;tt&gt;Вход выполнен: &lt;span style="color: blacl; background-color: lime;"&gt; ДА ✔ &lt;/span&gt;&lt;br&gt;Возможность записи: &lt;span style="color: black; background-color: lime;"&gt; ДА ✔ &lt;/span&gt;&lt;/tt&gt;</t>
   </si>
   <si>
-    <t>Перед вводом данных необходимо авторизоваться. &lt;br&gt;Получить пароль можно у</t>
+    <t>Первым делом необходимо авторизоваться. &lt;br&gt;Получить пароль можно у</t>
+  </si>
+  <si>
+    <t>Сбор материала</t>
+  </si>
+  <si>
+    <t>Примечания к расположению</t>
+  </si>
+  <si>
+    <t>Примечания к сбору материала</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1083,7 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
@@ -1108,13 +1108,13 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1122,13 +1122,13 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,10 +1559,10 @@
         <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,10 +1587,10 @@
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,13 +1626,13 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,13 +1640,13 @@
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,10 +1685,10 @@
         <v>124</v>
       </c>
       <c r="C46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" t="s">
         <v>129</v>
-      </c>
-      <c r="D46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,10 +1699,10 @@
         <v>125</v>
       </c>
       <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
         <v>132</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,13 +1710,13 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
         <v>134</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,13 +1724,13 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,13 +1738,13 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,13 +1752,13 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,13 +1780,13 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,13 +1794,13 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,13 +1808,13 @@
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,13 +1822,13 @@
         <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,13 +1836,13 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,13 +1850,13 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,13 +1878,13 @@
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,13 +1892,13 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,13 +1920,13 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,13 +1948,13 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,13 +1976,13 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,13 +1990,13 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
